--- a/test-data.xlsx
+++ b/test-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
